--- a/xlsx/_wiki_塑胶炸弹_intext.xlsx
+++ b/xlsx/_wiki_塑胶炸弹_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>塑胶炸弹</t>
   </si>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://cs.wikipedia.org/wiki/Plastick%C3%A1_trhavina</t>
@@ -546,7 +540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,7 +864,7 @@
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -893,7 +887,7 @@
         <v>28</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1238,29 +1232,6 @@
         <v>58</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>30</v>
-      </c>
-      <c r="E31" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" t="n">
         <v>1</v>
       </c>
     </row>

--- a/xlsx/_wiki_塑胶炸弹_intext.xlsx
+++ b/xlsx/_wiki_塑胶炸弹_intext.xlsx
@@ -23,49 +23,49 @@
     <t>https://zh.wikipedia.org/zh-cn/%E5%A1%91%E8%83%B6%E7%82%B8%E5%BC%B9</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%91%E5%8C%96%E5%8A%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A1%91%E5%8C%96%E5%8A%91</t>
   </si>
   <si>
     <t>塑化剂</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%AF%E9%85%B8%E9%92%BE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B0%AF%E9%85%B8%E9%92%BE</t>
   </si>
   <si>
     <t>氯酸钾</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/C4%E7%82%B8%E8%8D%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/C4%E7%82%B8%E8%8D%AF</t>
   </si>
   <si>
     <t>C4炸药</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%A1%9D%E5%9F%BA%E7%94%B2%E8%8B%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%89%E7%A1%9D%E5%9F%BA%E7%94%B2%E8%8B%AF</t>
   </si>
   <si>
     <t>三硝基甲苯</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B%E6%AF%94%E7%A9%BA%E9%9A%BE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B4%9B%E5%85%8B%E6%AF%94%E7%A9%BA%E9%9A%BE</t>
   </si>
   <si>
     <t>洛克比空难</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%8F%E8%91%97%E6%A6%B4%E5%BD%88</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%BB%8F%E8%91%97%E6%A6%B4%E5%BD%88</t>
   </si>
   <si>
     <t>黏着榴弹</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%99%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
     <t>武器</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%91%E8%86%A0%E7%82%B8%E5%BD%88</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A1%91%E8%86%A0%E7%82%B8%E5%BD%88</t>
   </si>
   <si>
     <t>浏览条目正文[c]</t>
